--- a/election_votar_data/LOHAGARA/KALAUZAN/152566/152566_com_1837_male_without_photo_103_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152566/152566_com_1837_male_without_photo_103_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
     <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="47" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -23457,7 +23457,7 @@
       </c>
       <c r="F548" s="3" t="inlineStr">
         <is>
-          <t>দক্ষিণ জন্ম তারিখ: ০১/০১/১৯৬১</t>
+          <t>দক্ষি</t>
         </is>
       </c>
       <c r="G548" s="3" t="inlineStr">
@@ -39711,7 +39711,7 @@
       </c>
       <c r="F935" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০১/০৩/১৯৯৩</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G935" s="3" t="inlineStr">
@@ -53907,7 +53907,7 @@
       </c>
       <c r="F1273" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০১/০১/১৯৯৪</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G1273" s="3" t="inlineStr">
@@ -75285,7 +75285,7 @@
       </c>
       <c r="F1782" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ:০৬/০৭/১৯৮০</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G1782" s="3" t="inlineStr">
@@ -75453,7 +75453,7 @@
       </c>
       <c r="F1786" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ:০৭/১১/১৯২৭</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G1786" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/KALAUZAN/152566/152566_com_1837_male_without_photo_103_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152566/152566_com_1837_male_without_photo_103_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
     <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -23457,7 +23457,7 @@
       </c>
       <c r="F548" s="3" t="inlineStr">
         <is>
-          <t>দক্ষি</t>
+          <t>দক্ষিণ জন্ম তারিখ: ০১/০১/১৯৬১</t>
         </is>
       </c>
       <c r="G548" s="3" t="inlineStr">
@@ -39711,7 +39711,7 @@
       </c>
       <c r="F935" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০১/০৩/১৯৯৩</t>
         </is>
       </c>
       <c r="G935" s="3" t="inlineStr">
@@ -53907,7 +53907,7 @@
       </c>
       <c r="F1273" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০১/০১/১৯৯৪</t>
         </is>
       </c>
       <c r="G1273" s="3" t="inlineStr">
@@ -75285,7 +75285,7 @@
       </c>
       <c r="F1782" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ:০৬/০৭/১৯৮০</t>
         </is>
       </c>
       <c r="G1782" s="3" t="inlineStr">
@@ -75453,7 +75453,7 @@
       </c>
       <c r="F1786" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ:০৭/১১/১৯২৭</t>
         </is>
       </c>
       <c r="G1786" s="3" t="inlineStr">
